--- a/SDP/Filexel/lainlain.xlsx
+++ b/SDP/Filexel/lainlain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\TRCH\Automationpython\Filexel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\TRCH\Automationpython\SDP\Filexel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CB1B2D-CE5F-4DF3-9F38-846CB380A6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA973B8-8922-432A-8154-54275FC1EC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9645" yWindow="510" windowWidth="18885" windowHeight="15555" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pegawai" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="702">
   <si>
     <t>NIP</t>
   </si>
@@ -2032,9 +2032,6 @@
     <t>LAMPUNG</t>
   </si>
   <si>
-    <t>Rupb. Kelas I B. Lampung</t>
-  </si>
-  <si>
     <t>opbanlampung</t>
   </si>
   <si>
@@ -2047,18 +2044,12 @@
     <t>spvbanlampung</t>
   </si>
   <si>
-    <t>Rupb. Kelas II Metro</t>
-  </si>
-  <si>
     <t>opmetro</t>
   </si>
   <si>
     <t>spvmetro</t>
   </si>
   <si>
-    <t>Rupb. Kelas II Kotabumi</t>
-  </si>
-  <si>
     <t>opkotabumi</t>
   </si>
   <si>
@@ -2068,9 +2059,6 @@
     <t>BANTEN</t>
   </si>
   <si>
-    <t>Rupb. Kelas II Serang</t>
-  </si>
-  <si>
     <t>oprupserang</t>
   </si>
   <si>
@@ -2080,315 +2068,78 @@
     <t>DKI JAKARTA</t>
   </si>
   <si>
-    <t>Rupb. Kelas I Jakarta Barat</t>
-  </si>
-  <si>
     <t>oprupjakbar</t>
   </si>
   <si>
     <t>spvjakbar</t>
   </si>
   <si>
-    <t>Rupb. Kelas I Jakarta Selatan</t>
-  </si>
-  <si>
     <t>oprupjaksel</t>
   </si>
   <si>
     <t>spvjaksel</t>
   </si>
   <si>
-    <t>Rupb. Kelas I Jakarta Timur</t>
-  </si>
-  <si>
     <t>oprupjaktim</t>
   </si>
   <si>
     <t>spvjaktim</t>
   </si>
   <si>
-    <t>Rupb. Kelas I Jakarta Utara</t>
-  </si>
-  <si>
     <t>oprupjakut</t>
   </si>
   <si>
     <t>spvjakut</t>
   </si>
   <si>
-    <t>Rupb. Kelas I Jakarta Pusat</t>
-  </si>
-  <si>
     <t>oprupjakpus</t>
   </si>
   <si>
     <t>JAWA BARAT</t>
   </si>
   <si>
-    <t>Rupb. Kelas I Bandung</t>
-  </si>
-  <si>
     <t>oprupbasanbdg</t>
   </si>
   <si>
     <t>spv-bdg</t>
   </si>
   <si>
-    <t>Rupb. Kelas I Cirebon</t>
-  </si>
-  <si>
     <t>oprupcirebon</t>
   </si>
   <si>
     <t>spvcirebon</t>
   </si>
   <si>
-    <t>Rupb. Kelas II Indramayu</t>
-  </si>
-  <si>
     <t>rub-indramayu</t>
   </si>
   <si>
     <t>spvindramayu</t>
   </si>
   <si>
-    <t>NAD</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas I Aceh</t>
-  </si>
-  <si>
-    <t>SUMUT</t>
-  </si>
-  <si>
-    <t>SUMBAR</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas I Padang</t>
-  </si>
-  <si>
     <t>RIAU</t>
   </si>
   <si>
-    <t>Rupb. Kelas I Pekanbaru</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas II Bangkinang</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas II Bengkalis</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas II Rengat</t>
-  </si>
-  <si>
-    <t>KEPRI</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas II Tanjung Pinang</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas I Jambi</t>
-  </si>
-  <si>
-    <t>SUMSEL</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas I Palembang</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas II Baturaja</t>
-  </si>
-  <si>
-    <t>BABEL</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas II Pangkal Pinang</t>
-  </si>
-  <si>
     <t>BENGKULU</t>
   </si>
   <si>
-    <t>Rupb. Kelas I Bengkulu</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas II Arga Makmur</t>
-  </si>
-  <si>
     <t>JAWA TENGAH</t>
   </si>
   <si>
-    <t>Rupb. Kelas I Semarang</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas I Surakarta</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas I Pekalongan</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas II Wonogiri</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas II Cilacap</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas II Purbalingga</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas II Purwokerto</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas II Sragen</t>
-  </si>
-  <si>
-    <t>DIY</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas I Yogyakarta</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas II Wonosari</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas II Wates</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas II Bantul</t>
-  </si>
-  <si>
     <t>JAWA TIMUR</t>
   </si>
   <si>
-    <t>Rupb. Kelas I Surabaya</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas II Blitar</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas II Jombang</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas II Mojokerto</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas II Probolinggo</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas II Pasuruan</t>
-  </si>
-  <si>
-    <t>KALBAR</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas I Pontianak</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas I Singkawang</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas II Sanggau</t>
-  </si>
-  <si>
-    <t>KALTENG</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas I Palangkaraya</t>
-  </si>
-  <si>
-    <t>KALSEL</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas I Banjarmasin</t>
-  </si>
-  <si>
-    <t>KALTIM</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas I Samarinda</t>
-  </si>
-  <si>
-    <t>SULUT</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas I Manado</t>
-  </si>
-  <si>
-    <t>SULSEL</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas I Makassar</t>
-  </si>
-  <si>
-    <t>SULTENG</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas I Palu</t>
-  </si>
-  <si>
-    <t>SULTRA</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas I Kendari</t>
-  </si>
-  <si>
     <t>GORONTALO</t>
   </si>
   <si>
-    <t>Rupb. Kelas I Gorontalo</t>
-  </si>
-  <si>
-    <t>SULBAR</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas I Mamuju</t>
-  </si>
-  <si>
     <t>BALI</t>
   </si>
   <si>
-    <t>Rupb. Kelas I Denpasar</t>
-  </si>
-  <si>
-    <t>NTB</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas I Mataram</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas II Sumbawa Besar</t>
-  </si>
-  <si>
-    <t>NTT</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas I Kupang</t>
-  </si>
-  <si>
     <t>MALUKU</t>
   </si>
   <si>
-    <t>Rupb. Kelas I Ambon</t>
-  </si>
-  <si>
-    <t>MALUT</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas II Ternate</t>
-  </si>
-  <si>
     <t>PAPUA</t>
   </si>
   <si>
-    <t>Rupb. Kelas I Jayapura</t>
-  </si>
-  <si>
-    <t>PAPUA BRT</t>
-  </si>
-  <si>
-    <t>Rupb. Kelas I Manokwari</t>
-  </si>
-  <si>
     <t>Tipe</t>
   </si>
   <si>
@@ -2524,9 +2275,6 @@
     <t>oprupPalu</t>
   </si>
   <si>
-    <t>oprupKendari</t>
-  </si>
-  <si>
     <t>oprupGorontalo</t>
   </si>
   <si>
@@ -2558,6 +2306,381 @@
   </si>
   <si>
     <t>Aktif Level</t>
+  </si>
+  <si>
+    <t>Aceh</t>
+  </si>
+  <si>
+    <t>Sumatera Utara</t>
+  </si>
+  <si>
+    <t>Sumatera Barat</t>
+  </si>
+  <si>
+    <t>Sumatera Selatan</t>
+  </si>
+  <si>
+    <t>Kepulauan Riau</t>
+  </si>
+  <si>
+    <t>Kepulauan Bangka Belitung</t>
+  </si>
+  <si>
+    <t>D. I. Yogyakarta</t>
+  </si>
+  <si>
+    <t>Kalimantan Barat</t>
+  </si>
+  <si>
+    <t>Kalimantan Tengah</t>
+  </si>
+  <si>
+    <t>Kalimantan Selatan</t>
+  </si>
+  <si>
+    <t>Kalimantan Timur</t>
+  </si>
+  <si>
+    <t>Sulawesi Utara</t>
+  </si>
+  <si>
+    <t>Sulawesi Selatan</t>
+  </si>
+  <si>
+    <t>Sulawesi Tengah</t>
+  </si>
+  <si>
+    <t>Sulawesi Barat</t>
+  </si>
+  <si>
+    <t>Nusa Tenggara Barat</t>
+  </si>
+  <si>
+    <t>Nusa Tenggara Timur</t>
+  </si>
+  <si>
+    <t>Maluku Utara</t>
+  </si>
+  <si>
+    <t>Papua Barat</t>
+  </si>
+  <si>
+    <t>RUPBASAN KELAS I BANDA ACEH</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas I B. Lampung</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas II Metro</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas II Kotabumi</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas II Serang</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas I Jakarta Barat</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas I Jakarta Selatan</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas I Jakarta Timur</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas I Jakarta Utara</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas I Jakarta Pusat</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas I Bandung</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas I Cirebon</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas II Indramayu</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas I Padang</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas I Pekanbaru</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas II Bangkinang</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas II Bengkalis</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas II Rengat</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas II Tanjung Pinang</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas I Jambi</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas I Palembang</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas II Baturaja</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas II Pangkal Pinang</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas I Bengkulu</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas II Arga Makmur</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas I Semarang</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas I Surakarta</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas I Pekalongan</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas II Wonogiri</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas II Cilacap</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas II Purbalingga</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas II Purwokerto</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas II Sragen</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas I Yogyakarta</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas II Wonosari</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas II Wates</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas II Bantul</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas I Surabaya</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas II Blitar</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas II Jombang</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas II Mojokerto</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas II Probolinggo</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas II Pasuruan</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas I Pontianak</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas I Singkawang</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas II Sanggau</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas I Palangkaraya</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas I Banjarmasin</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas I Samarinda</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas I Manado</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas I Makassar</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas I Palu</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas I Gorontalo</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas I Mamuju</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas I Denpasar</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas I Mataram</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas II Sumbawa Besar</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas I Kupang</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas I Ambon</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas II Ternate</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas I Jayapura</t>
+  </si>
+  <si>
+    <t>RUPBASAN Kelas I Manokwari</t>
+  </si>
+  <si>
+    <t>Kanwil rupbasan</t>
+  </si>
+  <si>
+    <t>Kanwil Rupbasan</t>
+  </si>
+  <si>
+    <t>kanwil@gmail.com</t>
+  </si>
+  <si>
+    <t>Lampung</t>
+  </si>
+  <si>
+    <t>Banten</t>
+  </si>
+  <si>
+    <t>DKI Jakarta</t>
+  </si>
+  <si>
+    <t>kanwilruplampung</t>
+  </si>
+  <si>
+    <t>kanwilrupbanten</t>
+  </si>
+  <si>
+    <t>kanwilrupdkijakarta</t>
+  </si>
+  <si>
+    <t>kanwilrupjabar</t>
+  </si>
+  <si>
+    <t>kanwilrupaceh</t>
+  </si>
+  <si>
+    <t>kanwilrupSumut</t>
+  </si>
+  <si>
+    <t>kanwilrupSumbar</t>
+  </si>
+  <si>
+    <t>kanwilrupriau</t>
+  </si>
+  <si>
+    <t>kanwilrupkepriau</t>
+  </si>
+  <si>
+    <t>kanwilrupjambi</t>
+  </si>
+  <si>
+    <t>kanwilrupsumsel</t>
+  </si>
+  <si>
+    <t>kanwilrupkepulauanbabel</t>
+  </si>
+  <si>
+    <t>kanwilrupbengkulu</t>
+  </si>
+  <si>
+    <t>kanwilrupjateng</t>
+  </si>
+  <si>
+    <t>kanwilrupDIY</t>
+  </si>
+  <si>
+    <t>kanwilrupjatim</t>
+  </si>
+  <si>
+    <t>kanwilrupkalbar</t>
+  </si>
+  <si>
+    <t>kanwilrupkalteng</t>
+  </si>
+  <si>
+    <t>kanwilrupkalsel</t>
+  </si>
+  <si>
+    <t>kanwilrupkaltim</t>
+  </si>
+  <si>
+    <t>kanwilrupSulawesiUtara</t>
+  </si>
+  <si>
+    <t>kanwilrupSulawesiSelatan</t>
+  </si>
+  <si>
+    <t>kanwilrupSulawesiTengah</t>
+  </si>
+  <si>
+    <t>kanwilrupgorontalo</t>
+  </si>
+  <si>
+    <t>kanwilrupSulawesiBarat</t>
+  </si>
+  <si>
+    <t>kanwilrupbali</t>
+  </si>
+  <si>
+    <t>kanwilrupNTB</t>
+  </si>
+  <si>
+    <t>kanwilrupNTT</t>
+  </si>
+  <si>
+    <t>kanwilrupmaluku</t>
+  </si>
+  <si>
+    <t>kanwilrupmalukutara</t>
+  </si>
+  <si>
+    <t>kanwilruppapua</t>
+  </si>
+  <si>
+    <t>kanwilruppabar</t>
+  </si>
+  <si>
+    <t>Bengkulu</t>
+  </si>
+  <si>
+    <t>Jawa Timur</t>
+  </si>
+  <si>
+    <t>Gorontalo</t>
+  </si>
+  <si>
+    <t>Bali</t>
+  </si>
+  <si>
+    <t>Maluku</t>
+  </si>
+  <si>
+    <t>Papua</t>
   </si>
 </sst>
 </file>
@@ -2567,7 +2690,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0_ "/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2659,8 +2782,13 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF2D3748"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2670,12 +2798,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2693,18 +2815,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2736,19 +2858,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2756,7 +2865,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2830,7 +2939,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2839,58 +2948,37 @@
     <xf numFmtId="3" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2899,14 +2987,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5809,79 +5934,79 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="47" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="40" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" customWidth="1"/>
+    <col min="9" max="9" width="41" style="4" customWidth="1"/>
     <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.85546875" customWidth="1"/>
     <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="A1" s="36"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="40" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="34" t="s">
         <v>480</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="34" t="s">
         <v>481</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-    </row>
-    <row r="2" spans="1:12" ht="15">
-      <c r="A2" s="38" t="s">
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="32" t="s">
         <v>482</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="32" t="s">
         <v>444</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="38" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="32" t="s">
         <v>445</v>
       </c>
-      <c r="K2" s="50" t="s">
-        <v>660</v>
-      </c>
-      <c r="L2" s="38" t="s">
+      <c r="K2" s="42" t="s">
+        <v>576</v>
+      </c>
+      <c r="L2" s="32" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="44" t="s">
-        <v>604</v>
+    <row r="3" spans="1:12">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="37" t="s">
+        <v>521</v>
       </c>
       <c r="H3" s="25">
         <v>2</v>
@@ -5889,2338 +6014,3309 @@
       <c r="I3" s="25">
         <v>3</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="39"/>
-    </row>
-    <row r="4" spans="1:12" ht="15">
-      <c r="A4" s="35" t="s">
-        <v>486</v>
-      </c>
-      <c r="B4" s="35" t="s">
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="33"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="C4" s="29">
+        <v>0</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E4" s="29">
+        <v>0</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>487</v>
       </c>
-      <c r="C4" s="35">
-        <v>0</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E4" s="35">
-        <v>0</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>488</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>605</v>
+      <c r="G4" s="39" t="s">
+        <v>522</v>
       </c>
       <c r="H4" s="26" t="s">
         <v>484</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>485</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="35" t="s">
+        <v>597</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="29" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15">
-      <c r="A5" s="35" t="s">
-        <v>491</v>
-      </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="C5" s="29">
+        <v>0</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E5" s="29">
+        <v>0</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>487</v>
       </c>
-      <c r="C5" s="35">
-        <v>0</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E5" s="35">
-        <v>0</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>488</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>605</v>
+      <c r="G5" s="39" t="s">
+        <v>522</v>
       </c>
       <c r="H5" s="26" t="s">
         <v>484</v>
       </c>
       <c r="I5" s="27" t="s">
+        <v>598</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="K5" s="29" t="s">
         <v>490</v>
       </c>
-      <c r="J5" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K5" s="34"/>
-      <c r="L5" s="35" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15">
-      <c r="A6" s="35" t="s">
-        <v>494</v>
-      </c>
-      <c r="B6" s="35" t="s">
+      <c r="L5" s="29" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="C6" s="29">
+        <v>0</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E6" s="29">
+        <v>0</v>
+      </c>
+      <c r="F6" s="28" t="s">
         <v>487</v>
       </c>
-      <c r="C6" s="35">
-        <v>0</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E6" s="35">
-        <v>0</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>488</v>
-      </c>
-      <c r="G6" s="46" t="s">
-        <v>605</v>
+      <c r="G6" s="39" t="s">
+        <v>522</v>
       </c>
       <c r="H6" s="26" t="s">
         <v>484</v>
       </c>
       <c r="I6" s="27" t="s">
+        <v>599</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="K6" s="28"/>
+      <c r="L6" s="29" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="29" t="s">
+        <v>494</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="C7" s="29">
+        <v>0</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E7" s="29">
+        <v>0</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H7" s="26" t="s">
         <v>493</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="I7" s="27" t="s">
+        <v>600</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="K7" s="28"/>
+      <c r="L7" s="29" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="C8" s="29">
+        <v>0</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E8" s="29">
+        <v>0</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>601</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="29" t="s">
+        <v>499</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="C9" s="29">
+        <v>0</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E9" s="29">
+        <v>0</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>602</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="28" t="s">
+        <v>501</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="C10" s="29">
+        <v>0</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E10" s="29">
+        <v>0</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>603</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="28" t="s">
+        <v>503</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="C11" s="29">
+        <v>0</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E11" s="29">
+        <v>0</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>604</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E12" s="29">
+        <v>0</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>605</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="C13" s="29">
+        <v>0</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E13" s="29">
+        <v>0</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>606</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="C14" s="29">
+        <v>0</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E14" s="29">
+        <v>0</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="I14" s="27" t="s">
         <v>607</v>
       </c>
-      <c r="K6" s="34"/>
-      <c r="L6" s="35" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15">
-      <c r="A7" s="35" t="s">
-        <v>498</v>
-      </c>
-      <c r="B7" s="35" t="s">
+      <c r="J14" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="C15" s="29">
+        <v>0</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E15" s="29">
+        <v>0</v>
+      </c>
+      <c r="F15" s="28" t="s">
         <v>487</v>
       </c>
-      <c r="C7" s="35">
-        <v>0</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E7" s="35">
-        <v>0</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>488</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>497</v>
-      </c>
-      <c r="J7" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="35" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15">
-      <c r="A8" s="35" t="s">
-        <v>502</v>
-      </c>
-      <c r="B8" s="35" t="s">
+      <c r="G15" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>608</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="49" customFormat="1">
+      <c r="A16" s="39" t="s">
+        <v>525</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="C16" s="44">
+        <v>0</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="E16" s="44">
+        <v>0</v>
+      </c>
+      <c r="F16" s="46" t="s">
         <v>487</v>
       </c>
-      <c r="C8" s="35">
-        <v>0</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E8" s="35">
-        <v>0</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>488</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>500</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>501</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="35" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15">
-      <c r="A9" s="35" t="s">
-        <v>505</v>
-      </c>
-      <c r="B9" s="35" t="s">
+      <c r="G16" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="H16" s="47" t="s">
+        <v>577</v>
+      </c>
+      <c r="I16" s="48" t="s">
+        <v>596</v>
+      </c>
+      <c r="J16" s="46" t="s">
+        <v>524</v>
+      </c>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="49" customFormat="1">
+      <c r="A17" s="39" t="s">
+        <v>526</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="C17" s="44">
+        <v>0</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="E17" s="44">
+        <v>0</v>
+      </c>
+      <c r="F17" s="46" t="s">
         <v>487</v>
       </c>
-      <c r="C9" s="35">
-        <v>0</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E9" s="35">
-        <v>0</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>488</v>
-      </c>
-      <c r="G9" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>500</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>504</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="35" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15">
-      <c r="A10" s="34" t="s">
-        <v>508</v>
-      </c>
-      <c r="B10" s="35" t="s">
+      <c r="G17" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="H17" s="47" t="s">
+        <v>578</v>
+      </c>
+      <c r="I17" s="48" t="s">
+        <v>596</v>
+      </c>
+      <c r="J17" s="46" t="s">
+        <v>524</v>
+      </c>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="49" customFormat="1">
+      <c r="A18" s="39" t="s">
+        <v>527</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="C18" s="44">
+        <v>0</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="E18" s="44">
+        <v>0</v>
+      </c>
+      <c r="F18" s="46" t="s">
         <v>487</v>
       </c>
-      <c r="C10" s="35">
-        <v>0</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E10" s="35">
-        <v>0</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>488</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>500</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>507</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15">
-      <c r="A11" s="34" t="s">
-        <v>511</v>
-      </c>
-      <c r="B11" s="35" t="s">
+      <c r="G18" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="H18" s="47" t="s">
+        <v>579</v>
+      </c>
+      <c r="I18" s="48" t="s">
+        <v>609</v>
+      </c>
+      <c r="J18" s="46" t="s">
+        <v>524</v>
+      </c>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="49" customFormat="1">
+      <c r="A19" s="39" t="s">
+        <v>528</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="C19" s="44">
+        <v>0</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="E19" s="44">
+        <v>0</v>
+      </c>
+      <c r="F19" s="46" t="s">
         <v>487</v>
       </c>
-      <c r="C11" s="35">
-        <v>0</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E11" s="35">
-        <v>0</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>488</v>
-      </c>
-      <c r="G11" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>500</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>510</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15">
-      <c r="A12" s="34" t="s">
+      <c r="G19" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="H19" s="48" t="s">
+        <v>513</v>
+      </c>
+      <c r="I19" s="48" t="s">
+        <v>610</v>
+      </c>
+      <c r="J19" s="46" t="s">
+        <v>524</v>
+      </c>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="49" customFormat="1">
+      <c r="A20" s="39" t="s">
+        <v>529</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="C20" s="44">
+        <v>0</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="E20" s="44">
+        <v>0</v>
+      </c>
+      <c r="F20" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>513</v>
+      </c>
+      <c r="I20" s="48" t="s">
+        <v>611</v>
+      </c>
+      <c r="J20" s="46" t="s">
+        <v>524</v>
+      </c>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="49" customFormat="1">
+      <c r="A21" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="C21" s="44">
+        <v>0</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="E21" s="44">
+        <v>0</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="H21" s="48" t="s">
+        <v>513</v>
+      </c>
+      <c r="I21" s="48" t="s">
+        <v>612</v>
+      </c>
+      <c r="J21" s="46" t="s">
+        <v>524</v>
+      </c>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="49" customFormat="1">
+      <c r="A22" s="39" t="s">
+        <v>531</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="C22" s="44">
+        <v>0</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="E22" s="44">
+        <v>0</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="H22" s="48" t="s">
+        <v>513</v>
+      </c>
+      <c r="I22" s="48" t="s">
+        <v>613</v>
+      </c>
+      <c r="J22" s="46" t="s">
+        <v>524</v>
+      </c>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="49" customFormat="1">
+      <c r="A23" s="39" t="s">
+        <v>532</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="C23" s="44">
+        <v>0</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="E23" s="44">
+        <v>0</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="H23" s="47" t="s">
+        <v>581</v>
+      </c>
+      <c r="I23" s="48" t="s">
+        <v>614</v>
+      </c>
+      <c r="J23" s="46" t="s">
+        <v>524</v>
+      </c>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="49" customFormat="1">
+      <c r="A24" s="39" t="s">
+        <v>533</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="C24" s="44">
+        <v>0</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="E24" s="44">
+        <v>0</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="G24" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="H24" s="48" t="s">
+        <v>370</v>
+      </c>
+      <c r="I24" s="48" t="s">
+        <v>615</v>
+      </c>
+      <c r="J24" s="46" t="s">
+        <v>524</v>
+      </c>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="49" customFormat="1">
+      <c r="A25" s="39" t="s">
+        <v>534</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="C25" s="44">
+        <v>0</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="E25" s="44">
+        <v>0</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="G25" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="H25" s="48" t="s">
+        <v>580</v>
+      </c>
+      <c r="I25" s="48" t="s">
+        <v>616</v>
+      </c>
+      <c r="J25" s="46" t="s">
+        <v>524</v>
+      </c>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="49" customFormat="1">
+      <c r="A26" s="39" t="s">
+        <v>535</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="C26" s="44">
+        <v>0</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="E26" s="44">
+        <v>0</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="H26" s="48" t="s">
+        <v>580</v>
+      </c>
+      <c r="I26" s="48" t="s">
+        <v>617</v>
+      </c>
+      <c r="J26" s="46" t="s">
+        <v>524</v>
+      </c>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="49" customFormat="1">
+      <c r="A27" s="39" t="s">
+        <v>536</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="C27" s="44">
+        <v>0</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="E27" s="44">
+        <v>0</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="G27" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="H27" s="50" t="s">
+        <v>582</v>
+      </c>
+      <c r="I27" s="48" t="s">
+        <v>618</v>
+      </c>
+      <c r="J27" s="46" t="s">
+        <v>524</v>
+      </c>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="49" customFormat="1">
+      <c r="A28" s="39" t="s">
+        <v>537</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="C28" s="44">
+        <v>0</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="E28" s="44">
+        <v>0</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="G28" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="H28" s="50" t="s">
         <v>514</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="I28" s="48" t="s">
+        <v>619</v>
+      </c>
+      <c r="J28" s="46" t="s">
+        <v>524</v>
+      </c>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="49" customFormat="1">
+      <c r="A29" s="39" t="s">
+        <v>538</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="C29" s="44">
+        <v>0</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="E29" s="44">
+        <v>0</v>
+      </c>
+      <c r="F29" s="46" t="s">
         <v>487</v>
       </c>
-      <c r="C12" s="35">
-        <v>0</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E12" s="35">
-        <v>0</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>488</v>
-      </c>
-      <c r="G12" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>500</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>513</v>
-      </c>
-      <c r="J12" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34" t="s">
+      <c r="G29" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="H29" s="50" t="s">
+        <v>514</v>
+      </c>
+      <c r="I29" s="48" t="s">
+        <v>620</v>
+      </c>
+      <c r="J29" s="46" t="s">
+        <v>524</v>
+      </c>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="49" customFormat="1">
+      <c r="A30" s="43" t="s">
+        <v>539</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="C30" s="44">
+        <v>0</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="E30" s="44">
+        <v>0</v>
+      </c>
+      <c r="F30" s="46" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15">
-      <c r="A13" s="34" t="s">
+      <c r="G30" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="H30" s="48" t="s">
+        <v>515</v>
+      </c>
+      <c r="I30" s="48" t="s">
+        <v>621</v>
+      </c>
+      <c r="J30" s="46" t="s">
+        <v>524</v>
+      </c>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="49" customFormat="1">
+      <c r="A31" s="43" t="s">
+        <v>540</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="C31" s="44">
+        <v>0</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="E31" s="44">
+        <v>0</v>
+      </c>
+      <c r="F31" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="G31" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="H31" s="50" t="s">
+        <v>515</v>
+      </c>
+      <c r="I31" s="48" t="s">
+        <v>622</v>
+      </c>
+      <c r="J31" s="46" t="s">
+        <v>524</v>
+      </c>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="49" customFormat="1">
+      <c r="A32" s="43" t="s">
+        <v>541</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="C32" s="44">
+        <v>0</v>
+      </c>
+      <c r="D32" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="E32" s="44">
+        <v>0</v>
+      </c>
+      <c r="F32" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="G32" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="H32" s="50" t="s">
+        <v>515</v>
+      </c>
+      <c r="I32" s="48" t="s">
+        <v>623</v>
+      </c>
+      <c r="J32" s="46" t="s">
+        <v>524</v>
+      </c>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="49" customFormat="1">
+      <c r="A33" s="43" t="s">
+        <v>542</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="C33" s="44">
+        <v>0</v>
+      </c>
+      <c r="D33" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="E33" s="44">
+        <v>0</v>
+      </c>
+      <c r="F33" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="G33" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="H33" s="48" t="s">
+        <v>515</v>
+      </c>
+      <c r="I33" s="48" t="s">
+        <v>624</v>
+      </c>
+      <c r="J33" s="46" t="s">
+        <v>524</v>
+      </c>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="49" customFormat="1">
+      <c r="A34" s="43" t="s">
+        <v>543</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="C34" s="44">
+        <v>0</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="E34" s="44">
+        <v>0</v>
+      </c>
+      <c r="F34" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="G34" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="H34" s="48" t="s">
+        <v>515</v>
+      </c>
+      <c r="I34" s="48" t="s">
+        <v>625</v>
+      </c>
+      <c r="J34" s="46" t="s">
+        <v>524</v>
+      </c>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="49" customFormat="1">
+      <c r="A35" s="43" t="s">
+        <v>544</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="C35" s="44">
+        <v>0</v>
+      </c>
+      <c r="D35" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="E35" s="44">
+        <v>0</v>
+      </c>
+      <c r="F35" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="G35" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="H35" s="48" t="s">
+        <v>515</v>
+      </c>
+      <c r="I35" s="48" t="s">
+        <v>626</v>
+      </c>
+      <c r="J35" s="46" t="s">
+        <v>524</v>
+      </c>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="49" customFormat="1">
+      <c r="A36" s="43" t="s">
+        <v>545</v>
+      </c>
+      <c r="B36" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="C36" s="44">
+        <v>0</v>
+      </c>
+      <c r="D36" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="E36" s="44">
+        <v>0</v>
+      </c>
+      <c r="F36" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="G36" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="H36" s="48" t="s">
+        <v>515</v>
+      </c>
+      <c r="I36" s="48" t="s">
+        <v>627</v>
+      </c>
+      <c r="J36" s="46" t="s">
+        <v>524</v>
+      </c>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="49" customFormat="1">
+      <c r="A37" s="43" t="s">
+        <v>546</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="C37" s="44">
+        <v>0</v>
+      </c>
+      <c r="D37" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="E37" s="44">
+        <v>0</v>
+      </c>
+      <c r="F37" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="G37" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="H37" s="50" t="s">
+        <v>515</v>
+      </c>
+      <c r="I37" s="48" t="s">
+        <v>628</v>
+      </c>
+      <c r="J37" s="46" t="s">
+        <v>524</v>
+      </c>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="49" customFormat="1">
+      <c r="A38" s="43" t="s">
+        <v>547</v>
+      </c>
+      <c r="B38" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="C38" s="44">
+        <v>0</v>
+      </c>
+      <c r="D38" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="E38" s="44">
+        <v>0</v>
+      </c>
+      <c r="F38" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="G38" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="H38" s="47" t="s">
+        <v>583</v>
+      </c>
+      <c r="I38" s="48" t="s">
+        <v>629</v>
+      </c>
+      <c r="J38" s="46" t="s">
+        <v>524</v>
+      </c>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="49" customFormat="1">
+      <c r="A39" s="43" t="s">
+        <v>548</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="C39" s="44">
+        <v>0</v>
+      </c>
+      <c r="D39" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="E39" s="44">
+        <v>0</v>
+      </c>
+      <c r="F39" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="G39" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="H39" s="47" t="s">
+        <v>583</v>
+      </c>
+      <c r="I39" s="48" t="s">
+        <v>630</v>
+      </c>
+      <c r="J39" s="46" t="s">
+        <v>524</v>
+      </c>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="49" customFormat="1">
+      <c r="A40" s="43" t="s">
+        <v>549</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="C40" s="44">
+        <v>0</v>
+      </c>
+      <c r="D40" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="E40" s="44">
+        <v>0</v>
+      </c>
+      <c r="F40" s="46" t="s">
+        <v>487</v>
+      </c>
+      <c r="G40" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="H40" s="47" t="s">
+        <v>583</v>
+      </c>
+      <c r="I40" s="48" t="s">
+        <v>631</v>
+      </c>
+      <c r="J40" s="46" t="s">
+        <v>524</v>
+      </c>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="49" customFormat="1">
+      <c r="A41" s="39" t="s">
+        <v>550</v>
+      </c>
+      <c r="B41" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C41" s="51">
+        <v>0</v>
+      </c>
+      <c r="D41" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E41" s="51">
+        <v>0</v>
+      </c>
+      <c r="F41" s="52" t="s">
+        <v>487</v>
+      </c>
+      <c r="G41" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H41" s="53" t="s">
+        <v>583</v>
+      </c>
+      <c r="I41" s="54" t="s">
+        <v>632</v>
+      </c>
+      <c r="J41" s="52" t="s">
+        <v>524</v>
+      </c>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="49" customFormat="1">
+      <c r="A42" s="39" t="s">
+        <v>551</v>
+      </c>
+      <c r="B42" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C42" s="51">
+        <v>0</v>
+      </c>
+      <c r="D42" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E42" s="51">
+        <v>0</v>
+      </c>
+      <c r="F42" s="52" t="s">
+        <v>487</v>
+      </c>
+      <c r="G42" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H42" s="55" t="s">
+        <v>516</v>
+      </c>
+      <c r="I42" s="54" t="s">
+        <v>633</v>
+      </c>
+      <c r="J42" s="52" t="s">
+        <v>524</v>
+      </c>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="49" customFormat="1">
+      <c r="A43" s="39" t="s">
+        <v>552</v>
+      </c>
+      <c r="B43" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C43" s="51">
+        <v>0</v>
+      </c>
+      <c r="D43" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E43" s="51">
+        <v>0</v>
+      </c>
+      <c r="F43" s="52" t="s">
+        <v>487</v>
+      </c>
+      <c r="G43" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H43" s="54" t="s">
+        <v>516</v>
+      </c>
+      <c r="I43" s="54" t="s">
+        <v>634</v>
+      </c>
+      <c r="J43" s="52" t="s">
+        <v>524</v>
+      </c>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="49" customFormat="1">
+      <c r="A44" s="39" t="s">
+        <v>553</v>
+      </c>
+      <c r="B44" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C44" s="51">
+        <v>0</v>
+      </c>
+      <c r="D44" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E44" s="51">
+        <v>0</v>
+      </c>
+      <c r="F44" s="52" t="s">
+        <v>487</v>
+      </c>
+      <c r="G44" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H44" s="55" t="s">
+        <v>516</v>
+      </c>
+      <c r="I44" s="54" t="s">
+        <v>635</v>
+      </c>
+      <c r="J44" s="52" t="s">
+        <v>524</v>
+      </c>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="49" customFormat="1">
+      <c r="A45" s="39" t="s">
+        <v>554</v>
+      </c>
+      <c r="B45" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C45" s="51">
+        <v>0</v>
+      </c>
+      <c r="D45" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E45" s="51">
+        <v>0</v>
+      </c>
+      <c r="F45" s="52" t="s">
+        <v>487</v>
+      </c>
+      <c r="G45" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H45" s="55" t="s">
+        <v>516</v>
+      </c>
+      <c r="I45" s="54" t="s">
+        <v>636</v>
+      </c>
+      <c r="J45" s="52" t="s">
+        <v>524</v>
+      </c>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="49" customFormat="1">
+      <c r="A46" s="39" t="s">
+        <v>555</v>
+      </c>
+      <c r="B46" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C46" s="51">
+        <v>0</v>
+      </c>
+      <c r="D46" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E46" s="51">
+        <v>0</v>
+      </c>
+      <c r="F46" s="52" t="s">
+        <v>487</v>
+      </c>
+      <c r="G46" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H46" s="54" t="s">
+        <v>516</v>
+      </c>
+      <c r="I46" s="54" t="s">
+        <v>637</v>
+      </c>
+      <c r="J46" s="52" t="s">
+        <v>524</v>
+      </c>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="49" customFormat="1">
+      <c r="A47" s="39" t="s">
+        <v>556</v>
+      </c>
+      <c r="B47" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C47" s="51">
+        <v>0</v>
+      </c>
+      <c r="D47" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E47" s="51">
+        <v>0</v>
+      </c>
+      <c r="F47" s="52" t="s">
+        <v>487</v>
+      </c>
+      <c r="G47" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H47" s="54" t="s">
+        <v>516</v>
+      </c>
+      <c r="I47" s="54" t="s">
+        <v>638</v>
+      </c>
+      <c r="J47" s="52" t="s">
+        <v>524</v>
+      </c>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="49" customFormat="1">
+      <c r="A48" s="39" t="s">
+        <v>557</v>
+      </c>
+      <c r="B48" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C48" s="51">
+        <v>0</v>
+      </c>
+      <c r="D48" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E48" s="51">
+        <v>0</v>
+      </c>
+      <c r="F48" s="52" t="s">
+        <v>487</v>
+      </c>
+      <c r="G48" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H48" s="55" t="s">
+        <v>584</v>
+      </c>
+      <c r="I48" s="54" t="s">
+        <v>639</v>
+      </c>
+      <c r="J48" s="52" t="s">
+        <v>524</v>
+      </c>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="49" customFormat="1">
+      <c r="A49" s="39" t="s">
+        <v>558</v>
+      </c>
+      <c r="B49" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C49" s="51">
+        <v>0</v>
+      </c>
+      <c r="D49" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E49" s="51">
+        <v>0</v>
+      </c>
+      <c r="F49" s="52" t="s">
+        <v>487</v>
+      </c>
+      <c r="G49" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H49" s="55" t="s">
+        <v>584</v>
+      </c>
+      <c r="I49" s="54" t="s">
+        <v>640</v>
+      </c>
+      <c r="J49" s="52" t="s">
+        <v>524</v>
+      </c>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="49" customFormat="1">
+      <c r="A50" s="39" t="s">
+        <v>559</v>
+      </c>
+      <c r="B50" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C50" s="51">
+        <v>0</v>
+      </c>
+      <c r="D50" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E50" s="51">
+        <v>0</v>
+      </c>
+      <c r="F50" s="52" t="s">
+        <v>487</v>
+      </c>
+      <c r="G50" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H50" s="55" t="s">
+        <v>584</v>
+      </c>
+      <c r="I50" s="54" t="s">
+        <v>641</v>
+      </c>
+      <c r="J50" s="52" t="s">
+        <v>524</v>
+      </c>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="49" customFormat="1">
+      <c r="A51" s="39" t="s">
+        <v>560</v>
+      </c>
+      <c r="B51" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C51" s="51">
+        <v>0</v>
+      </c>
+      <c r="D51" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E51" s="51">
+        <v>0</v>
+      </c>
+      <c r="F51" s="52" t="s">
+        <v>487</v>
+      </c>
+      <c r="G51" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H51" s="55" t="s">
+        <v>585</v>
+      </c>
+      <c r="I51" s="54" t="s">
+        <v>642</v>
+      </c>
+      <c r="J51" s="52" t="s">
+        <v>524</v>
+      </c>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="49" customFormat="1">
+      <c r="A52" s="39" t="s">
+        <v>561</v>
+      </c>
+      <c r="B52" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C52" s="51">
+        <v>0</v>
+      </c>
+      <c r="D52" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E52" s="51">
+        <v>0</v>
+      </c>
+      <c r="F52" s="52" t="s">
+        <v>487</v>
+      </c>
+      <c r="G52" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H52" s="55" t="s">
+        <v>586</v>
+      </c>
+      <c r="I52" s="54" t="s">
+        <v>643</v>
+      </c>
+      <c r="J52" s="52" t="s">
+        <v>524</v>
+      </c>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="49" customFormat="1">
+      <c r="A53" s="39" t="s">
+        <v>562</v>
+      </c>
+      <c r="B53" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C53" s="51">
+        <v>0</v>
+      </c>
+      <c r="D53" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E53" s="51">
+        <v>0</v>
+      </c>
+      <c r="F53" s="52" t="s">
+        <v>487</v>
+      </c>
+      <c r="G53" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H53" s="54" t="s">
+        <v>587</v>
+      </c>
+      <c r="I53" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="J53" s="52" t="s">
+        <v>524</v>
+      </c>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="49" customFormat="1">
+      <c r="A54" s="39" t="s">
+        <v>563</v>
+      </c>
+      <c r="B54" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C54" s="51">
+        <v>0</v>
+      </c>
+      <c r="D54" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E54" s="51">
+        <v>0</v>
+      </c>
+      <c r="F54" s="52" t="s">
+        <v>487</v>
+      </c>
+      <c r="G54" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H54" s="54" t="s">
+        <v>588</v>
+      </c>
+      <c r="I54" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="J54" s="52" t="s">
+        <v>524</v>
+      </c>
+      <c r="K54" s="52"/>
+      <c r="L54" s="52" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="49" customFormat="1">
+      <c r="A55" s="39" t="s">
+        <v>564</v>
+      </c>
+      <c r="B55" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C55" s="51">
+        <v>0</v>
+      </c>
+      <c r="D55" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E55" s="51">
+        <v>0</v>
+      </c>
+      <c r="F55" s="52" t="s">
+        <v>487</v>
+      </c>
+      <c r="G55" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H55" s="54" t="s">
+        <v>589</v>
+      </c>
+      <c r="I55" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="J55" s="52" t="s">
+        <v>524</v>
+      </c>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="49" customFormat="1">
+      <c r="A56" s="39" t="s">
+        <v>565</v>
+      </c>
+      <c r="B56" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C56" s="51">
+        <v>0</v>
+      </c>
+      <c r="D56" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E56" s="51">
+        <v>0</v>
+      </c>
+      <c r="F56" s="52" t="s">
+        <v>487</v>
+      </c>
+      <c r="G56" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H56" s="55" t="s">
+        <v>590</v>
+      </c>
+      <c r="I56" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="J56" s="52" t="s">
+        <v>524</v>
+      </c>
+      <c r="K56" s="52"/>
+      <c r="L56" s="52" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" s="49" customFormat="1">
+      <c r="A57" s="39" t="s">
+        <v>566</v>
+      </c>
+      <c r="B57" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C57" s="51">
+        <v>0</v>
+      </c>
+      <c r="D57" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E57" s="51">
+        <v>0</v>
+      </c>
+      <c r="F57" s="52" t="s">
+        <v>487</v>
+      </c>
+      <c r="G57" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H57" s="54" t="s">
         <v>517</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="I57" s="54" t="s">
+        <v>648</v>
+      </c>
+      <c r="J57" s="52" t="s">
+        <v>524</v>
+      </c>
+      <c r="K57" s="52"/>
+      <c r="L57" s="52" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="49" customFormat="1">
+      <c r="A58" s="39" t="s">
+        <v>567</v>
+      </c>
+      <c r="B58" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C58" s="51">
+        <v>0</v>
+      </c>
+      <c r="D58" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E58" s="51">
+        <v>0</v>
+      </c>
+      <c r="F58" s="52" t="s">
         <v>487</v>
       </c>
-      <c r="C13" s="35">
-        <v>0</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E13" s="35">
-        <v>0</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>488</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>516</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34" t="s">
+      <c r="G58" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H58" s="54" t="s">
+        <v>591</v>
+      </c>
+      <c r="I58" s="54" t="s">
+        <v>649</v>
+      </c>
+      <c r="J58" s="52" t="s">
+        <v>524</v>
+      </c>
+      <c r="K58" s="52"/>
+      <c r="L58" s="52" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="49" customFormat="1">
+      <c r="A59" s="39" t="s">
+        <v>568</v>
+      </c>
+      <c r="B59" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C59" s="51">
+        <v>0</v>
+      </c>
+      <c r="D59" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E59" s="51">
+        <v>0</v>
+      </c>
+      <c r="F59" s="52" t="s">
+        <v>487</v>
+      </c>
+      <c r="G59" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H59" s="54" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15">
-      <c r="A14" s="34" t="s">
+      <c r="I59" s="54" t="s">
+        <v>650</v>
+      </c>
+      <c r="J59" s="52" t="s">
+        <v>524</v>
+      </c>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" s="49" customFormat="1">
+      <c r="A60" s="39" t="s">
+        <v>569</v>
+      </c>
+      <c r="B60" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C60" s="51">
+        <v>0</v>
+      </c>
+      <c r="D60" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E60" s="51">
+        <v>0</v>
+      </c>
+      <c r="F60" s="52" t="s">
+        <v>487</v>
+      </c>
+      <c r="G60" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H60" s="54" t="s">
+        <v>592</v>
+      </c>
+      <c r="I60" s="54" t="s">
+        <v>651</v>
+      </c>
+      <c r="J60" s="52" t="s">
+        <v>524</v>
+      </c>
+      <c r="K60" s="52"/>
+      <c r="L60" s="52" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" s="49" customFormat="1">
+      <c r="A61" s="39" t="s">
+        <v>570</v>
+      </c>
+      <c r="B61" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C61" s="51">
+        <v>0</v>
+      </c>
+      <c r="D61" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E61" s="51">
+        <v>0</v>
+      </c>
+      <c r="F61" s="52" t="s">
+        <v>487</v>
+      </c>
+      <c r="G61" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H61" s="54" t="s">
+        <v>592</v>
+      </c>
+      <c r="I61" s="54" t="s">
+        <v>652</v>
+      </c>
+      <c r="J61" s="52" t="s">
+        <v>524</v>
+      </c>
+      <c r="K61" s="52"/>
+      <c r="L61" s="52" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="49" customFormat="1">
+      <c r="A62" s="39" t="s">
+        <v>571</v>
+      </c>
+      <c r="B62" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C62" s="51">
+        <v>0</v>
+      </c>
+      <c r="D62" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E62" s="51">
+        <v>0</v>
+      </c>
+      <c r="F62" s="52" t="s">
+        <v>487</v>
+      </c>
+      <c r="G62" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H62" s="55" t="s">
+        <v>593</v>
+      </c>
+      <c r="I62" s="54" t="s">
+        <v>653</v>
+      </c>
+      <c r="J62" s="52" t="s">
+        <v>524</v>
+      </c>
+      <c r="K62" s="52"/>
+      <c r="L62" s="52" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" s="49" customFormat="1">
+      <c r="A63" s="39" t="s">
+        <v>572</v>
+      </c>
+      <c r="B63" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C63" s="51">
+        <v>0</v>
+      </c>
+      <c r="D63" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E63" s="51">
+        <v>0</v>
+      </c>
+      <c r="F63" s="52" t="s">
+        <v>487</v>
+      </c>
+      <c r="G63" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H63" s="55" t="s">
+        <v>519</v>
+      </c>
+      <c r="I63" s="54" t="s">
+        <v>654</v>
+      </c>
+      <c r="J63" s="52" t="s">
+        <v>524</v>
+      </c>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" s="49" customFormat="1">
+      <c r="A64" s="39" t="s">
+        <v>573</v>
+      </c>
+      <c r="B64" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C64" s="51">
+        <v>0</v>
+      </c>
+      <c r="D64" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E64" s="51">
+        <v>0</v>
+      </c>
+      <c r="F64" s="52" t="s">
+        <v>487</v>
+      </c>
+      <c r="G64" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H64" s="55" t="s">
+        <v>594</v>
+      </c>
+      <c r="I64" s="54" t="s">
+        <v>655</v>
+      </c>
+      <c r="J64" s="52" t="s">
+        <v>524</v>
+      </c>
+      <c r="K64" s="52"/>
+      <c r="L64" s="52" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" s="49" customFormat="1">
+      <c r="A65" s="39" t="s">
+        <v>574</v>
+      </c>
+      <c r="B65" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C65" s="51">
+        <v>0</v>
+      </c>
+      <c r="D65" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E65" s="51">
+        <v>0</v>
+      </c>
+      <c r="F65" s="52" t="s">
+        <v>487</v>
+      </c>
+      <c r="G65" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H65" s="55" t="s">
         <v>520</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="I65" s="54" t="s">
+        <v>656</v>
+      </c>
+      <c r="J65" s="52" t="s">
+        <v>524</v>
+      </c>
+      <c r="K65" s="52"/>
+      <c r="L65" s="52" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" s="49" customFormat="1">
+      <c r="A66" s="39" t="s">
+        <v>575</v>
+      </c>
+      <c r="B66" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C66" s="51">
+        <v>0</v>
+      </c>
+      <c r="D66" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="E66" s="51">
+        <v>0</v>
+      </c>
+      <c r="F66" s="52" t="s">
         <v>487</v>
       </c>
-      <c r="C14" s="35">
-        <v>0</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E14" s="35">
-        <v>0</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>488</v>
-      </c>
-      <c r="G14" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>519</v>
-      </c>
-      <c r="J14" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34" t="s">
+      <c r="G66" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="H66" s="55" t="s">
+        <v>595</v>
+      </c>
+      <c r="I66" s="54" t="s">
+        <v>657</v>
+      </c>
+      <c r="J66" s="52" t="s">
+        <v>524</v>
+      </c>
+      <c r="K66" s="52"/>
+      <c r="L66" s="52" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="41"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="41"/>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="30"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="34" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="32" t="s">
+        <v>482</v>
+      </c>
+      <c r="B75" s="32" t="s">
+        <v>444</v>
+      </c>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="34"/>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="33"/>
+      <c r="B76" s="33"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="37" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15">
-      <c r="A15" s="34" t="s">
-        <v>523</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>487</v>
-      </c>
-      <c r="C15" s="35">
-        <v>0</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E15" s="35">
-        <v>0</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>488</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>515</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>522</v>
-      </c>
-      <c r="J15" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15">
-      <c r="A16" s="46" t="s">
-        <v>608</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C16" s="35">
-        <v>0</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E16" s="35">
-        <v>0</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G16" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H16" s="29" t="s">
-        <v>525</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>526</v>
-      </c>
-      <c r="J16" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15">
-      <c r="A17" s="46" t="s">
-        <v>609</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C17" s="35">
-        <v>0</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E17" s="35">
-        <v>0</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G17" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>527</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>526</v>
-      </c>
-      <c r="J17" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15">
-      <c r="A18" s="46" t="s">
-        <v>610</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C18" s="35">
-        <v>0</v>
-      </c>
-      <c r="D18" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E18" s="35">
-        <v>0</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G18" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>528</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>529</v>
-      </c>
-      <c r="J18" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15">
-      <c r="A19" s="46" t="s">
-        <v>611</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C19" s="35">
-        <v>0</v>
-      </c>
-      <c r="D19" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E19" s="35">
-        <v>0</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G19" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>530</v>
-      </c>
-      <c r="I19" s="28" t="s">
-        <v>531</v>
-      </c>
-      <c r="J19" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15">
-      <c r="A20" s="46" t="s">
-        <v>612</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C20" s="35">
-        <v>0</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E20" s="35">
-        <v>0</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G20" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>530</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>532</v>
-      </c>
-      <c r="J20" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15">
-      <c r="A21" s="46" t="s">
-        <v>613</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C21" s="35">
-        <v>0</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E21" s="35">
-        <v>0</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G21" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>530</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>533</v>
-      </c>
-      <c r="J21" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="15">
-      <c r="A22" s="46" t="s">
-        <v>614</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C22" s="35">
-        <v>0</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E22" s="35">
-        <v>0</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G22" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>530</v>
-      </c>
-      <c r="I22" s="28" t="s">
-        <v>534</v>
-      </c>
-      <c r="J22" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15">
-      <c r="A23" s="46" t="s">
-        <v>615</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C23" s="35">
-        <v>0</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E23" s="35">
-        <v>0</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G23" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>535</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>536</v>
-      </c>
-      <c r="J23" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15">
-      <c r="A24" s="46" t="s">
-        <v>616</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C24" s="35">
-        <v>0</v>
-      </c>
-      <c r="D24" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E24" s="35">
-        <v>0</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G24" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>370</v>
-      </c>
-      <c r="I24" s="28" t="s">
-        <v>537</v>
-      </c>
-      <c r="J24" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15">
-      <c r="A25" s="46" t="s">
-        <v>617</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C25" s="35">
-        <v>0</v>
-      </c>
-      <c r="D25" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E25" s="35">
-        <v>0</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G25" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H25" s="28" t="s">
-        <v>538</v>
-      </c>
-      <c r="I25" s="28" t="s">
-        <v>539</v>
-      </c>
-      <c r="J25" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15">
-      <c r="A26" s="46" t="s">
-        <v>618</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C26" s="35">
-        <v>0</v>
-      </c>
-      <c r="D26" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E26" s="35">
-        <v>0</v>
-      </c>
-      <c r="F26" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G26" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H26" s="30" t="s">
-        <v>538</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>540</v>
-      </c>
-      <c r="J26" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15">
-      <c r="A27" s="46" t="s">
-        <v>619</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C27" s="35">
-        <v>0</v>
-      </c>
-      <c r="D27" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E27" s="35">
-        <v>0</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G27" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H27" s="30" t="s">
-        <v>541</v>
-      </c>
-      <c r="I27" s="28" t="s">
-        <v>542</v>
-      </c>
-      <c r="J27" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15">
-      <c r="A28" s="46" t="s">
-        <v>620</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C28" s="35">
-        <v>0</v>
-      </c>
-      <c r="D28" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E28" s="35">
-        <v>0</v>
-      </c>
-      <c r="F28" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G28" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H28" s="30" t="s">
-        <v>543</v>
-      </c>
-      <c r="I28" s="28" t="s">
-        <v>544</v>
-      </c>
-      <c r="J28" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15">
-      <c r="A29" s="46" t="s">
-        <v>621</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C29" s="35">
-        <v>0</v>
-      </c>
-      <c r="D29" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E29" s="35">
-        <v>0</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G29" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H29" s="30" t="s">
-        <v>543</v>
-      </c>
-      <c r="I29" s="28" t="s">
-        <v>545</v>
-      </c>
-      <c r="J29" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="15">
-      <c r="A30" s="46" t="s">
-        <v>622</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C30" s="35">
-        <v>0</v>
-      </c>
-      <c r="D30" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E30" s="35">
-        <v>0</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G30" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H30" s="28" t="s">
-        <v>546</v>
-      </c>
-      <c r="I30" s="28" t="s">
-        <v>547</v>
-      </c>
-      <c r="J30" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15">
-      <c r="A31" s="46" t="s">
-        <v>623</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C31" s="35">
-        <v>0</v>
-      </c>
-      <c r="D31" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E31" s="35">
-        <v>0</v>
-      </c>
-      <c r="F31" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G31" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H31" s="30" t="s">
-        <v>546</v>
-      </c>
-      <c r="I31" s="28" t="s">
-        <v>548</v>
-      </c>
-      <c r="J31" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="15">
-      <c r="A32" s="46" t="s">
-        <v>624</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C32" s="35">
-        <v>0</v>
-      </c>
-      <c r="D32" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E32" s="35">
-        <v>0</v>
-      </c>
-      <c r="F32" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G32" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H32" s="30" t="s">
-        <v>546</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>549</v>
-      </c>
-      <c r="J32" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="15">
-      <c r="A33" s="46" t="s">
-        <v>625</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C33" s="35">
-        <v>0</v>
-      </c>
-      <c r="D33" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E33" s="35">
-        <v>0</v>
-      </c>
-      <c r="F33" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G33" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H33" s="28" t="s">
-        <v>546</v>
-      </c>
-      <c r="I33" s="28" t="s">
-        <v>550</v>
-      </c>
-      <c r="J33" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="15">
-      <c r="A34" s="46" t="s">
-        <v>626</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C34" s="35">
-        <v>0</v>
-      </c>
-      <c r="D34" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E34" s="35">
-        <v>0</v>
-      </c>
-      <c r="F34" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G34" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H34" s="28" t="s">
-        <v>546</v>
-      </c>
-      <c r="I34" s="28" t="s">
-        <v>551</v>
-      </c>
-      <c r="J34" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="15">
-      <c r="A35" s="46" t="s">
-        <v>627</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C35" s="35">
-        <v>0</v>
-      </c>
-      <c r="D35" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E35" s="35">
-        <v>0</v>
-      </c>
-      <c r="F35" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G35" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H35" s="28" t="s">
-        <v>546</v>
-      </c>
-      <c r="I35" s="28" t="s">
-        <v>552</v>
-      </c>
-      <c r="J35" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="15">
-      <c r="A36" s="46" t="s">
-        <v>628</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C36" s="35">
-        <v>0</v>
-      </c>
-      <c r="D36" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E36" s="35">
-        <v>0</v>
-      </c>
-      <c r="F36" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G36" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H36" s="28" t="s">
-        <v>546</v>
-      </c>
-      <c r="I36" s="28" t="s">
-        <v>553</v>
-      </c>
-      <c r="J36" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="15">
-      <c r="A37" s="46" t="s">
-        <v>629</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C37" s="35">
-        <v>0</v>
-      </c>
-      <c r="D37" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E37" s="35">
-        <v>0</v>
-      </c>
-      <c r="F37" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G37" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H37" s="30" t="s">
-        <v>546</v>
-      </c>
-      <c r="I37" s="28" t="s">
-        <v>554</v>
-      </c>
-      <c r="J37" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="15">
-      <c r="A38" s="46" t="s">
-        <v>630</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C38" s="35">
-        <v>0</v>
-      </c>
-      <c r="D38" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E38" s="35">
-        <v>0</v>
-      </c>
-      <c r="F38" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G38" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H38" s="29" t="s">
-        <v>555</v>
-      </c>
-      <c r="I38" s="28" t="s">
-        <v>556</v>
-      </c>
-      <c r="J38" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="15">
-      <c r="A39" s="46" t="s">
-        <v>631</v>
-      </c>
-      <c r="B39" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C39" s="35">
-        <v>0</v>
-      </c>
-      <c r="D39" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E39" s="35">
-        <v>0</v>
-      </c>
-      <c r="F39" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G39" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H39" s="29" t="s">
-        <v>555</v>
-      </c>
-      <c r="I39" s="28" t="s">
-        <v>557</v>
-      </c>
-      <c r="J39" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="15">
-      <c r="A40" s="46" t="s">
-        <v>632</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C40" s="35">
-        <v>0</v>
-      </c>
-      <c r="D40" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E40" s="35">
-        <v>0</v>
-      </c>
-      <c r="F40" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G40" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H40" s="29" t="s">
-        <v>555</v>
-      </c>
-      <c r="I40" s="28" t="s">
-        <v>558</v>
-      </c>
-      <c r="J40" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="15">
-      <c r="A41" s="46" t="s">
-        <v>633</v>
-      </c>
-      <c r="B41" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C41" s="35">
-        <v>0</v>
-      </c>
-      <c r="D41" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E41" s="35">
-        <v>0</v>
-      </c>
-      <c r="F41" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G41" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H41" s="29" t="s">
-        <v>555</v>
-      </c>
-      <c r="I41" s="28" t="s">
-        <v>559</v>
-      </c>
-      <c r="J41" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="15">
-      <c r="A42" s="46" t="s">
-        <v>634</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C42" s="35">
-        <v>0</v>
-      </c>
-      <c r="D42" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E42" s="35">
-        <v>0</v>
-      </c>
-      <c r="F42" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G42" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H42" s="30" t="s">
-        <v>560</v>
-      </c>
-      <c r="I42" s="28" t="s">
-        <v>561</v>
-      </c>
-      <c r="J42" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="15">
-      <c r="A43" s="46" t="s">
-        <v>635</v>
-      </c>
-      <c r="B43" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C43" s="35">
-        <v>0</v>
-      </c>
-      <c r="D43" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E43" s="35">
-        <v>0</v>
-      </c>
-      <c r="F43" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G43" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H43" s="28" t="s">
-        <v>560</v>
-      </c>
-      <c r="I43" s="28" t="s">
-        <v>562</v>
-      </c>
-      <c r="J43" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="15">
-      <c r="A44" s="46" t="s">
-        <v>636</v>
-      </c>
-      <c r="B44" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C44" s="35">
-        <v>0</v>
-      </c>
-      <c r="D44" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E44" s="35">
-        <v>0</v>
-      </c>
-      <c r="F44" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G44" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H44" s="30" t="s">
-        <v>560</v>
-      </c>
-      <c r="I44" s="28" t="s">
-        <v>563</v>
-      </c>
-      <c r="J44" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="15">
-      <c r="A45" s="46" t="s">
-        <v>637</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C45" s="35">
-        <v>0</v>
-      </c>
-      <c r="D45" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E45" s="35">
-        <v>0</v>
-      </c>
-      <c r="F45" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G45" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H45" s="30" t="s">
-        <v>560</v>
-      </c>
-      <c r="I45" s="28" t="s">
-        <v>564</v>
-      </c>
-      <c r="J45" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="15">
-      <c r="A46" s="46" t="s">
-        <v>638</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C46" s="35">
-        <v>0</v>
-      </c>
-      <c r="D46" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E46" s="35">
-        <v>0</v>
-      </c>
-      <c r="F46" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G46" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H46" s="28" t="s">
-        <v>560</v>
-      </c>
-      <c r="I46" s="28" t="s">
-        <v>565</v>
-      </c>
-      <c r="J46" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K46" s="32"/>
-      <c r="L46" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="15">
-      <c r="A47" s="46" t="s">
-        <v>639</v>
-      </c>
-      <c r="B47" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C47" s="35">
-        <v>0</v>
-      </c>
-      <c r="D47" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E47" s="35">
-        <v>0</v>
-      </c>
-      <c r="F47" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G47" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H47" s="28" t="s">
-        <v>560</v>
-      </c>
-      <c r="I47" s="28" t="s">
-        <v>566</v>
-      </c>
-      <c r="J47" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K47" s="32"/>
-      <c r="L47" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="15">
-      <c r="A48" s="46" t="s">
-        <v>640</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C48" s="35">
-        <v>0</v>
-      </c>
-      <c r="D48" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E48" s="35">
-        <v>0</v>
-      </c>
-      <c r="F48" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G48" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H48" s="30" t="s">
-        <v>567</v>
-      </c>
-      <c r="I48" s="28" t="s">
-        <v>568</v>
-      </c>
-      <c r="J48" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K48" s="32"/>
-      <c r="L48" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="15">
-      <c r="A49" s="46" t="s">
-        <v>641</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C49" s="35">
-        <v>0</v>
-      </c>
-      <c r="D49" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E49" s="35">
-        <v>0</v>
-      </c>
-      <c r="F49" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G49" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H49" s="30" t="s">
-        <v>567</v>
-      </c>
-      <c r="I49" s="28" t="s">
-        <v>569</v>
-      </c>
-      <c r="J49" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="15">
-      <c r="A50" s="46" t="s">
-        <v>642</v>
-      </c>
-      <c r="B50" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C50" s="35">
-        <v>0</v>
-      </c>
-      <c r="D50" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E50" s="35">
-        <v>0</v>
-      </c>
-      <c r="F50" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G50" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H50" s="28" t="s">
-        <v>567</v>
-      </c>
-      <c r="I50" s="28" t="s">
-        <v>570</v>
-      </c>
-      <c r="J50" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="15">
-      <c r="A51" s="46" t="s">
-        <v>643</v>
-      </c>
-      <c r="B51" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C51" s="35">
-        <v>0</v>
-      </c>
-      <c r="D51" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E51" s="35">
-        <v>0</v>
-      </c>
-      <c r="F51" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G51" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H51" s="30" t="s">
-        <v>571</v>
-      </c>
-      <c r="I51" s="28" t="s">
-        <v>572</v>
-      </c>
-      <c r="J51" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="15">
-      <c r="A52" s="46" t="s">
-        <v>644</v>
-      </c>
-      <c r="B52" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C52" s="35">
-        <v>0</v>
-      </c>
-      <c r="D52" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E52" s="35">
-        <v>0</v>
-      </c>
-      <c r="F52" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G52" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H52" s="30" t="s">
-        <v>573</v>
-      </c>
-      <c r="I52" s="28" t="s">
-        <v>574</v>
-      </c>
-      <c r="J52" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K52" s="32"/>
-      <c r="L52" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="15">
-      <c r="A53" s="46" t="s">
-        <v>645</v>
-      </c>
-      <c r="B53" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C53" s="35">
-        <v>0</v>
-      </c>
-      <c r="D53" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E53" s="35">
-        <v>0</v>
-      </c>
-      <c r="F53" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G53" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H53" s="28" t="s">
-        <v>575</v>
-      </c>
-      <c r="I53" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="J53" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="15">
-      <c r="A54" s="46" t="s">
-        <v>646</v>
-      </c>
-      <c r="B54" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C54" s="35">
-        <v>0</v>
-      </c>
-      <c r="D54" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E54" s="35">
-        <v>0</v>
-      </c>
-      <c r="F54" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G54" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H54" s="28" t="s">
+      <c r="H76" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="41" t="s">
+        <v>664</v>
+      </c>
+      <c r="B77" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="C77" s="29">
+        <v>0</v>
+      </c>
+      <c r="D77" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E77" s="29">
+        <v>0</v>
+      </c>
+      <c r="F77" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="G77" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="H77" s="56" t="s">
+        <v>661</v>
+      </c>
+      <c r="J77" s="56" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="41" t="s">
+        <v>665</v>
+      </c>
+      <c r="B78" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="C78" s="29">
+        <v>0</v>
+      </c>
+      <c r="D78" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E78" s="29">
+        <v>0</v>
+      </c>
+      <c r="F78" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="G78" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="H78" s="56" t="s">
+        <v>662</v>
+      </c>
+      <c r="J78" s="56" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="41" t="s">
+        <v>666</v>
+      </c>
+      <c r="B79" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="C79" s="44">
+        <v>0</v>
+      </c>
+      <c r="D79" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E79" s="44">
+        <v>0</v>
+      </c>
+      <c r="F79" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="G79" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="H79" s="56" t="s">
+        <v>663</v>
+      </c>
+      <c r="J79" s="56" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="41" t="s">
+        <v>667</v>
+      </c>
+      <c r="B80" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="C80" s="44">
+        <v>0</v>
+      </c>
+      <c r="D80" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E80" s="44">
+        <v>0</v>
+      </c>
+      <c r="F80" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="G80" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="H80" s="56" t="s">
+        <v>279</v>
+      </c>
+      <c r="J80" s="56" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="41" t="s">
+        <v>668</v>
+      </c>
+      <c r="B81" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="C81" s="44">
+        <v>0</v>
+      </c>
+      <c r="D81" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E81" s="44">
+        <v>0</v>
+      </c>
+      <c r="F81" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="G81" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="H81" s="56" t="s">
         <v>577</v>
       </c>
-      <c r="I54" s="28" t="s">
+      <c r="J81" s="56" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="41" t="s">
+        <v>669</v>
+      </c>
+      <c r="B82" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="C82" s="44">
+        <v>0</v>
+      </c>
+      <c r="D82" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E82" s="44">
+        <v>0</v>
+      </c>
+      <c r="F82" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="G82" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="H82" s="56" t="s">
         <v>578</v>
       </c>
-      <c r="J54" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K54" s="32"/>
-      <c r="L54" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="15">
-      <c r="A55" s="46" t="s">
-        <v>647</v>
-      </c>
-      <c r="B55" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C55" s="35">
-        <v>0</v>
-      </c>
-      <c r="D55" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E55" s="35">
-        <v>0</v>
-      </c>
-      <c r="F55" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G55" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H55" s="28" t="s">
+      <c r="J82" s="56" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="41" t="s">
+        <v>670</v>
+      </c>
+      <c r="B83" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C83" s="51">
+        <v>0</v>
+      </c>
+      <c r="D83" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E83" s="51">
+        <v>0</v>
+      </c>
+      <c r="F83" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="G83" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="H83" s="56" t="s">
         <v>579</v>
       </c>
-      <c r="I55" s="28" t="s">
+      <c r="J83" s="56" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="41" t="s">
+        <v>671</v>
+      </c>
+      <c r="B84" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C84" s="51">
+        <v>0</v>
+      </c>
+      <c r="D84" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E84" s="51">
+        <v>0</v>
+      </c>
+      <c r="F84" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="G84" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="H84" s="56" t="s">
+        <v>420</v>
+      </c>
+      <c r="J84" s="56" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="41" t="s">
+        <v>672</v>
+      </c>
+      <c r="B85" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C85" s="51">
+        <v>0</v>
+      </c>
+      <c r="D85" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E85" s="51">
+        <v>0</v>
+      </c>
+      <c r="F85" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="G85" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="H85" s="56" t="s">
+        <v>581</v>
+      </c>
+      <c r="J85" s="56" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="41" t="s">
+        <v>673</v>
+      </c>
+      <c r="B86" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C86" s="51">
+        <v>0</v>
+      </c>
+      <c r="D86" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E86" s="51">
+        <v>0</v>
+      </c>
+      <c r="F86" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="G86" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="H86" s="56" t="s">
+        <v>357</v>
+      </c>
+      <c r="J86" s="56" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="41" t="s">
+        <v>674</v>
+      </c>
+      <c r="B87" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C87" s="51">
+        <v>0</v>
+      </c>
+      <c r="D87" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E87" s="51">
+        <v>0</v>
+      </c>
+      <c r="F87" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="G87" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="H87" s="56" t="s">
         <v>580</v>
       </c>
-      <c r="J55" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K55" s="32"/>
-      <c r="L55" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="15">
-      <c r="A56" s="46" t="s">
-        <v>648</v>
-      </c>
-      <c r="B56" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C56" s="35">
-        <v>0</v>
-      </c>
-      <c r="D56" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E56" s="35">
-        <v>0</v>
-      </c>
-      <c r="F56" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G56" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H56" s="30" t="s">
-        <v>581</v>
-      </c>
-      <c r="I56" s="28" t="s">
+      <c r="J87" s="56" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="41" t="s">
+        <v>675</v>
+      </c>
+      <c r="B88" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C88" s="51">
+        <v>0</v>
+      </c>
+      <c r="D88" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E88" s="51">
+        <v>0</v>
+      </c>
+      <c r="F88" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="G88" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="H88" s="56" t="s">
         <v>582</v>
       </c>
-      <c r="J56" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K56" s="32"/>
-      <c r="L56" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="15">
-      <c r="A57" s="46" t="s">
-        <v>649</v>
-      </c>
-      <c r="B57" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C57" s="35">
-        <v>0</v>
-      </c>
-      <c r="D57" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E57" s="35">
-        <v>0</v>
-      </c>
-      <c r="F57" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G57" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H57" s="28" t="s">
+      <c r="J88" s="56" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="41" t="s">
+        <v>676</v>
+      </c>
+      <c r="B89" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C89" s="51">
+        <v>0</v>
+      </c>
+      <c r="D89" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E89" s="51">
+        <v>0</v>
+      </c>
+      <c r="F89" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="G89" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="H89" s="56" t="s">
+        <v>696</v>
+      </c>
+      <c r="J89" s="56" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="B90" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C90" s="51">
+        <v>0</v>
+      </c>
+      <c r="D90" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E90" s="51">
+        <v>0</v>
+      </c>
+      <c r="F90" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="G90" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="H90" s="56" t="s">
+        <v>391</v>
+      </c>
+      <c r="J90" s="56" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="41" t="s">
+        <v>678</v>
+      </c>
+      <c r="B91" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="C91" s="29">
+        <v>0</v>
+      </c>
+      <c r="D91" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E91" s="29">
+        <v>0</v>
+      </c>
+      <c r="F91" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="G91" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="H91" s="56" t="s">
         <v>583</v>
       </c>
-      <c r="I57" s="28" t="s">
+      <c r="J91" s="56" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="41" t="s">
+        <v>679</v>
+      </c>
+      <c r="B92" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="C92" s="44">
+        <v>0</v>
+      </c>
+      <c r="D92" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E92" s="44">
+        <v>0</v>
+      </c>
+      <c r="F92" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="G92" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="H92" s="56" t="s">
+        <v>697</v>
+      </c>
+      <c r="J92" s="56" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="41" t="s">
+        <v>680</v>
+      </c>
+      <c r="B93" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="C93" s="44">
+        <v>0</v>
+      </c>
+      <c r="D93" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E93" s="44">
+        <v>0</v>
+      </c>
+      <c r="F93" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="G93" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="H93" s="56" t="s">
         <v>584</v>
       </c>
-      <c r="J57" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K57" s="32"/>
-      <c r="L57" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="15">
-      <c r="A58" s="46" t="s">
-        <v>650</v>
-      </c>
-      <c r="B58" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C58" s="35">
-        <v>0</v>
-      </c>
-      <c r="D58" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E58" s="35">
-        <v>0</v>
-      </c>
-      <c r="F58" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G58" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H58" s="28" t="s">
+      <c r="J93" s="56" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="41" t="s">
+        <v>681</v>
+      </c>
+      <c r="B94" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C94" s="51">
+        <v>0</v>
+      </c>
+      <c r="D94" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E94" s="51">
+        <v>0</v>
+      </c>
+      <c r="F94" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="G94" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="H94" s="56" t="s">
         <v>585</v>
       </c>
-      <c r="I58" s="31" t="s">
+      <c r="J94" s="56" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="B95" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C95" s="51">
+        <v>0</v>
+      </c>
+      <c r="D95" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E95" s="51">
+        <v>0</v>
+      </c>
+      <c r="F95" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="G95" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="H95" s="56" t="s">
         <v>586</v>
       </c>
-      <c r="J58" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="15">
-      <c r="A59" s="46" t="s">
-        <v>651</v>
-      </c>
-      <c r="B59" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C59" s="35">
-        <v>0</v>
-      </c>
-      <c r="D59" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E59" s="35">
-        <v>0</v>
-      </c>
-      <c r="F59" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G59" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H59" s="28" t="s">
+      <c r="J95" s="56" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="41" t="s">
+        <v>683</v>
+      </c>
+      <c r="B96" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C96" s="51">
+        <v>0</v>
+      </c>
+      <c r="D96" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E96" s="51">
+        <v>0</v>
+      </c>
+      <c r="F96" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="G96" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="H96" s="56" t="s">
         <v>587</v>
       </c>
-      <c r="I59" s="31" t="s">
+      <c r="J96" s="56" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="41" t="s">
+        <v>684</v>
+      </c>
+      <c r="B97" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C97" s="51">
+        <v>0</v>
+      </c>
+      <c r="D97" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E97" s="51">
+        <v>0</v>
+      </c>
+      <c r="F97" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="G97" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="H97" s="56" t="s">
         <v>588</v>
       </c>
-      <c r="J59" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K59" s="32"/>
-      <c r="L59" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="15">
-      <c r="A60" s="46" t="s">
-        <v>652</v>
-      </c>
-      <c r="B60" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C60" s="35">
-        <v>0</v>
-      </c>
-      <c r="D60" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E60" s="35">
-        <v>0</v>
-      </c>
-      <c r="F60" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G60" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H60" s="28" t="s">
+      <c r="J97" s="56" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="41" t="s">
+        <v>685</v>
+      </c>
+      <c r="B98" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C98" s="51">
+        <v>0</v>
+      </c>
+      <c r="D98" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E98" s="51">
+        <v>0</v>
+      </c>
+      <c r="F98" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="G98" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="H98" s="56" t="s">
         <v>589</v>
       </c>
-      <c r="I60" s="31" t="s">
+      <c r="J98" s="56" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="41" t="s">
+        <v>686</v>
+      </c>
+      <c r="B99" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C99" s="51">
+        <v>0</v>
+      </c>
+      <c r="D99" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E99" s="51">
+        <v>0</v>
+      </c>
+      <c r="F99" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="G99" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="H99" s="56" t="s">
         <v>590</v>
       </c>
-      <c r="J60" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K60" s="32"/>
-      <c r="L60" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="15">
-      <c r="A61" s="46" t="s">
-        <v>653</v>
-      </c>
-      <c r="B61" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C61" s="35">
-        <v>0</v>
-      </c>
-      <c r="D61" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E61" s="35">
-        <v>0</v>
-      </c>
-      <c r="F61" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G61" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H61" s="28" t="s">
+      <c r="J99" s="56" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="41" t="s">
+        <v>687</v>
+      </c>
+      <c r="B100" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C100" s="51">
+        <v>0</v>
+      </c>
+      <c r="D100" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E100" s="51">
+        <v>0</v>
+      </c>
+      <c r="F100" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="G100" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="H100" s="56" t="s">
+        <v>588</v>
+      </c>
+      <c r="I100" s="56"/>
+      <c r="J100" s="56" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="41" t="s">
+        <v>688</v>
+      </c>
+      <c r="B101" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C101" s="51">
+        <v>0</v>
+      </c>
+      <c r="D101" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E101" s="51">
+        <v>0</v>
+      </c>
+      <c r="F101" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="G101" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="H101" s="56" t="s">
+        <v>698</v>
+      </c>
+      <c r="J101" s="56" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="41" t="s">
+        <v>689</v>
+      </c>
+      <c r="B102" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C102" s="51">
+        <v>0</v>
+      </c>
+      <c r="D102" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E102" s="51">
+        <v>0</v>
+      </c>
+      <c r="F102" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="G102" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="H102" s="56" t="s">
         <v>591</v>
       </c>
-      <c r="I61" s="31" t="s">
+      <c r="J102" s="56" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="41" t="s">
+        <v>690</v>
+      </c>
+      <c r="B103" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C103" s="51">
+        <v>0</v>
+      </c>
+      <c r="D103" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E103" s="51">
+        <v>0</v>
+      </c>
+      <c r="F103" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="G103" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="H103" s="56" t="s">
+        <v>699</v>
+      </c>
+      <c r="J103" s="56" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="41" t="s">
+        <v>691</v>
+      </c>
+      <c r="B104" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C104" s="51">
+        <v>0</v>
+      </c>
+      <c r="D104" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E104" s="51">
+        <v>0</v>
+      </c>
+      <c r="F104" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="G104" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="H104" s="56" t="s">
         <v>592</v>
       </c>
-      <c r="J61" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K61" s="32"/>
-      <c r="L61" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="15">
-      <c r="A62" s="46" t="s">
-        <v>654</v>
-      </c>
-      <c r="B62" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C62" s="35">
-        <v>0</v>
-      </c>
-      <c r="D62" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E62" s="35">
-        <v>0</v>
-      </c>
-      <c r="F62" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G62" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H62" s="30" t="s">
-        <v>591</v>
-      </c>
-      <c r="I62" s="31" t="s">
+      <c r="J104" s="56" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="B105" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C105" s="51">
+        <v>0</v>
+      </c>
+      <c r="D105" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E105" s="51">
+        <v>0</v>
+      </c>
+      <c r="F105" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="G105" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="H105" s="56" t="s">
         <v>593</v>
       </c>
-      <c r="J62" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K62" s="32"/>
-      <c r="L62" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="15">
-      <c r="A63" s="46" t="s">
-        <v>655</v>
-      </c>
-      <c r="B63" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C63" s="35">
-        <v>0</v>
-      </c>
-      <c r="D63" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E63" s="35">
-        <v>0</v>
-      </c>
-      <c r="F63" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G63" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H63" s="30" t="s">
+      <c r="J105" s="56" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="41" t="s">
+        <v>693</v>
+      </c>
+      <c r="B106" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C106" s="51">
+        <v>0</v>
+      </c>
+      <c r="D106" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E106" s="51">
+        <v>0</v>
+      </c>
+      <c r="F106" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="G106" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="H106" s="56" t="s">
+        <v>700</v>
+      </c>
+      <c r="J106" s="56" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="41" t="s">
+        <v>694</v>
+      </c>
+      <c r="B107" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C107" s="51">
+        <v>0</v>
+      </c>
+      <c r="D107" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E107" s="51">
+        <v>0</v>
+      </c>
+      <c r="F107" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="G107" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="H107" s="56" t="s">
         <v>594</v>
       </c>
-      <c r="I63" s="31" t="s">
+      <c r="I107" s="56"/>
+      <c r="J107" s="56" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="41" t="s">
+        <v>695</v>
+      </c>
+      <c r="B108" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C108" s="51">
+        <v>0</v>
+      </c>
+      <c r="D108" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E108" s="51">
+        <v>0</v>
+      </c>
+      <c r="F108" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="G108" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="H108" s="56" t="s">
+        <v>701</v>
+      </c>
+      <c r="J108" s="56" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="55" t="s">
         <v>595</v>
       </c>
-      <c r="J63" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K63" s="32"/>
-      <c r="L63" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="15">
-      <c r="A64" s="46" t="s">
-        <v>656</v>
-      </c>
-      <c r="B64" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C64" s="35">
-        <v>0</v>
-      </c>
-      <c r="D64" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E64" s="35">
-        <v>0</v>
-      </c>
-      <c r="F64" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G64" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H64" s="30" t="s">
-        <v>596</v>
-      </c>
-      <c r="I64" s="31" t="s">
-        <v>597</v>
-      </c>
-      <c r="J64" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K64" s="32"/>
-      <c r="L64" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="15">
-      <c r="A65" s="46" t="s">
-        <v>657</v>
-      </c>
-      <c r="B65" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C65" s="35">
-        <v>0</v>
-      </c>
-      <c r="D65" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E65" s="35">
-        <v>0</v>
-      </c>
-      <c r="F65" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G65" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H65" s="30" t="s">
-        <v>598</v>
-      </c>
-      <c r="I65" s="31" t="s">
-        <v>599</v>
-      </c>
-      <c r="J65" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K65" s="32"/>
-      <c r="L65" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="15">
-      <c r="A66" s="46" t="s">
+      <c r="B109" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="C109" s="51">
+        <v>0</v>
+      </c>
+      <c r="D109" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="E109" s="51">
+        <v>0</v>
+      </c>
+      <c r="F109" s="28" t="s">
         <v>658</v>
       </c>
-      <c r="B66" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C66" s="35">
-        <v>0</v>
-      </c>
-      <c r="D66" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E66" s="35">
-        <v>0</v>
-      </c>
-      <c r="F66" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G66" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H66" s="30" t="s">
-        <v>600</v>
-      </c>
-      <c r="I66" s="31" t="s">
-        <v>601</v>
-      </c>
-      <c r="J66" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K66" s="32"/>
-      <c r="L66" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="15">
-      <c r="A67" s="46" t="s">
+      <c r="G109" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="H109" s="56" t="s">
+        <v>595</v>
+      </c>
+      <c r="J109" s="56" t="s">
         <v>659</v>
       </c>
-      <c r="B67" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="C67" s="35">
-        <v>0</v>
-      </c>
-      <c r="D67" s="47" t="s">
-        <v>606</v>
-      </c>
-      <c r="E67" s="35">
-        <v>0</v>
-      </c>
-      <c r="F67" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G67" s="46" t="s">
-        <v>605</v>
-      </c>
-      <c r="H67" s="30" t="s">
-        <v>602</v>
-      </c>
-      <c r="I67" s="28" t="s">
-        <v>603</v>
-      </c>
-      <c r="J67" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="K67" s="32"/>
-      <c r="L67" s="32" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="15">
-      <c r="A68" s="49"/>
-      <c r="B68" s="32"/>
-      <c r="C68" s="41"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="41"/>
-      <c r="G68" s="41"/>
-      <c r="H68" s="48"/>
-      <c r="I68" s="48"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="32"/>
-      <c r="L68" s="32"/>
-    </row>
-    <row r="69" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A69" s="49"/>
-    </row>
-    <row r="70" spans="1:12" ht="21.75" customHeight="1">
-      <c r="A70" s="49"/>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="I110" s="56"/>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="I111" s="56"/>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="I112" s="56"/>
+    </row>
+    <row r="113" spans="9:9">
+      <c r="I113" s="56"/>
+    </row>
+    <row r="114" spans="9:9">
+      <c r="I114" s="56"/>
+    </row>
+    <row r="115" spans="9:9">
+      <c r="I115" s="56"/>
+    </row>
+    <row r="116" spans="9:9">
+      <c r="I116" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H68:I68"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/SDP/Filexel/lainlain.xlsx
+++ b/SDP/Filexel/lainlain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\TRCH\Automationpython\SDP\Filexel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA973B8-8922-432A-8154-54275FC1EC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9BE43B-200D-441B-9EBE-2665B4BEB975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5850" yWindow="2280" windowWidth="21600" windowHeight="11505" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pegawai" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1753" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="727">
   <si>
     <t>NIP</t>
   </si>
@@ -2682,6 +2682,81 @@
   <si>
     <t>Papua</t>
   </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Nip</t>
+  </si>
+  <si>
+    <t>No Hp</t>
+  </si>
+  <si>
+    <t>Unit Kerja</t>
+  </si>
+  <si>
+    <t>Pengguna Bapas</t>
+  </si>
+  <si>
+    <t>199703302016200116</t>
+  </si>
+  <si>
+    <t>199405242005100125</t>
+  </si>
+  <si>
+    <t>199205212006200124</t>
+  </si>
+  <si>
+    <t>pkbsp@gmail.com</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>pkbps</t>
+  </si>
+  <si>
+    <t>BAPAS BANDUNG</t>
+  </si>
+  <si>
+    <t>PK Bapas</t>
+  </si>
+  <si>
+    <t>gawanti</t>
+  </si>
+  <si>
+    <t>kamila</t>
+  </si>
+  <si>
+    <t>jarwa</t>
+  </si>
+  <si>
+    <t>200404022019100120</t>
+  </si>
+  <si>
+    <t>200104032019100119</t>
+  </si>
+  <si>
+    <t>198906272018200118</t>
+  </si>
+  <si>
+    <t>kasie@gmail.com</t>
+  </si>
+  <si>
+    <t>Kasie Bapas</t>
+  </si>
+  <si>
+    <t>kasiebps</t>
+  </si>
+  <si>
+    <t>lurhur</t>
+  </si>
+  <si>
+    <t>gatot</t>
+  </si>
+  <si>
+    <t>ajimin</t>
+  </si>
 </sst>
 </file>
 
@@ -2690,12 +2765,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0_ "/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2788,7 +2870,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2822,6 +2904,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2861,19 +2961,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2882,25 +2982,22 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2909,16 +3006,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2930,109 +3030,129 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="14" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5934,26 +6054,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L116"/>
+  <dimension ref="A1:L127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="I92" sqref="I92"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="40" customWidth="1"/>
-    <col min="8" max="8" width="33.85546875" customWidth="1"/>
-    <col min="9" max="9" width="41" style="4" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -9304,19 +9423,272 @@
     <row r="112" spans="1:10">
       <c r="I112" s="56"/>
     </row>
-    <row r="113" spans="9:9">
+    <row r="113" spans="1:12">
       <c r="I113" s="56"/>
     </row>
-    <row r="114" spans="9:9">
+    <row r="114" spans="1:12">
       <c r="I114" s="56"/>
     </row>
-    <row r="115" spans="9:9">
+    <row r="115" spans="1:12">
       <c r="I115" s="56"/>
     </row>
-    <row r="116" spans="9:9">
-      <c r="I116" s="56"/>
+    <row r="118" spans="1:12">
+      <c r="A118" s="58" t="s">
+        <v>706</v>
+      </c>
+      <c r="B118" s="58"/>
+      <c r="C118" s="58"/>
+      <c r="D118" s="58"/>
+      <c r="E118" s="58"/>
+      <c r="F118" s="58"/>
+      <c r="G118" s="58"/>
+      <c r="H118" s="58"/>
+      <c r="I118" s="58"/>
+      <c r="J118" s="58"/>
+      <c r="K118" s="66"/>
+      <c r="L118" s="66"/>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" s="57" t="s">
+        <v>702</v>
+      </c>
+      <c r="B119" s="57" t="s">
+        <v>444</v>
+      </c>
+      <c r="C119" s="57" t="s">
+        <v>703</v>
+      </c>
+      <c r="D119" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" s="57" t="s">
+        <v>704</v>
+      </c>
+      <c r="F119" s="57" t="s">
+        <v>705</v>
+      </c>
+      <c r="G119" s="57" t="s">
+        <v>521</v>
+      </c>
+      <c r="H119" s="57" t="s">
+        <v>340</v>
+      </c>
+      <c r="I119" s="57" t="s">
+        <v>522</v>
+      </c>
+      <c r="J119" s="57" t="s">
+        <v>445</v>
+      </c>
+      <c r="L119" s="62"/>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" s="63" t="s">
+        <v>715</v>
+      </c>
+      <c r="B120" s="63" t="s">
+        <v>486</v>
+      </c>
+      <c r="C120" s="60" t="s">
+        <v>707</v>
+      </c>
+      <c r="D120" s="62" t="s">
+        <v>710</v>
+      </c>
+      <c r="E120" s="63" t="s">
+        <v>711</v>
+      </c>
+      <c r="F120" s="64" t="s">
+        <v>712</v>
+      </c>
+      <c r="G120" s="63" t="s">
+        <v>522</v>
+      </c>
+      <c r="H120" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="I120" s="63" t="s">
+        <v>713</v>
+      </c>
+      <c r="J120" s="63" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" s="63" t="s">
+        <v>716</v>
+      </c>
+      <c r="B121" s="63" t="s">
+        <v>486</v>
+      </c>
+      <c r="C121" s="59" t="s">
+        <v>708</v>
+      </c>
+      <c r="D121" s="62" t="s">
+        <v>710</v>
+      </c>
+      <c r="E121" s="63" t="s">
+        <v>711</v>
+      </c>
+      <c r="F121" s="64" t="s">
+        <v>712</v>
+      </c>
+      <c r="G121" s="63" t="s">
+        <v>522</v>
+      </c>
+      <c r="H121" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="I121" s="63" t="s">
+        <v>713</v>
+      </c>
+      <c r="J121" s="63" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122" s="63" t="s">
+        <v>717</v>
+      </c>
+      <c r="B122" s="63" t="s">
+        <v>486</v>
+      </c>
+      <c r="C122" s="61" t="s">
+        <v>709</v>
+      </c>
+      <c r="D122" s="62" t="s">
+        <v>710</v>
+      </c>
+      <c r="E122" s="63" t="s">
+        <v>711</v>
+      </c>
+      <c r="F122" s="64" t="s">
+        <v>712</v>
+      </c>
+      <c r="G122" s="63" t="s">
+        <v>522</v>
+      </c>
+      <c r="H122" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="I122" s="63" t="s">
+        <v>713</v>
+      </c>
+      <c r="J122" s="63" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="F123" s="40"/>
+      <c r="G123" s="63"/>
+      <c r="H123" s="4"/>
+      <c r="I123"/>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="F124" s="40"/>
+      <c r="G124"/>
+      <c r="H124" s="4"/>
+      <c r="I124"/>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" s="63" t="s">
+        <v>724</v>
+      </c>
+      <c r="B125" s="63" t="s">
+        <v>486</v>
+      </c>
+      <c r="C125" s="60" t="s">
+        <v>718</v>
+      </c>
+      <c r="D125" s="62" t="s">
+        <v>721</v>
+      </c>
+      <c r="E125" s="63" t="s">
+        <v>711</v>
+      </c>
+      <c r="F125" s="64" t="s">
+        <v>723</v>
+      </c>
+      <c r="G125" s="63" t="s">
+        <v>522</v>
+      </c>
+      <c r="H125" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="I125" s="63" t="s">
+        <v>713</v>
+      </c>
+      <c r="J125" s="63" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126" s="63" t="s">
+        <v>725</v>
+      </c>
+      <c r="B126" s="63" t="s">
+        <v>486</v>
+      </c>
+      <c r="C126" s="59" t="s">
+        <v>719</v>
+      </c>
+      <c r="D126" s="62" t="s">
+        <v>721</v>
+      </c>
+      <c r="E126" s="63" t="s">
+        <v>711</v>
+      </c>
+      <c r="F126" s="64" t="s">
+        <v>723</v>
+      </c>
+      <c r="G126" s="63" t="s">
+        <v>522</v>
+      </c>
+      <c r="H126" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="I126" s="63" t="s">
+        <v>713</v>
+      </c>
+      <c r="J126" s="63" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127" s="63" t="s">
+        <v>726</v>
+      </c>
+      <c r="B127" s="63" t="s">
+        <v>486</v>
+      </c>
+      <c r="C127" s="59" t="s">
+        <v>720</v>
+      </c>
+      <c r="D127" s="62" t="s">
+        <v>721</v>
+      </c>
+      <c r="E127" s="63" t="s">
+        <v>711</v>
+      </c>
+      <c r="F127" s="64" t="s">
+        <v>723</v>
+      </c>
+      <c r="G127" s="63" t="s">
+        <v>522</v>
+      </c>
+      <c r="H127" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="I127" s="63" t="s">
+        <v>713</v>
+      </c>
+      <c r="J127" s="63" t="s">
+        <v>722</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A118:J118"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
